--- a/data/trans_bre/LAWTONB_2R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>28.97550482569454</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.069151464952946</v>
+        <v>3.069151464952935</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06561778208039082</v>
@@ -649,7 +649,7 @@
         <v>1.252502619903544</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.06256420223394145</v>
+        <v>0.06256420223394121</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.4052047295291</v>
+        <v>-18.25514086002952</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.889429814871646</v>
+        <v>11.29080426057291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.040464612017552</v>
+        <v>10.02505138628516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.77547406000822</v>
+        <v>-10.48678145019788</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5674535623673256</v>
+        <v>-0.5606210583268036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2252462828381305</v>
+        <v>0.2526240646279415</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.206042723052956</v>
+        <v>0.2642470387342727</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1888731040470369</v>
+        <v>-0.1737295066866384</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.76037473113863</v>
+        <v>22.482744200928</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>49.88656611556053</v>
+        <v>49.58045966584289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48.48299232688224</v>
+        <v>48.88333625148448</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.32063088797073</v>
+        <v>16.92339746282846</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.628129300888529</v>
+        <v>1.569285699010858</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.405442175412496</v>
+        <v>2.689583171979205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.774730401255401</v>
+        <v>3.474012145468951</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4429874313046572</v>
+        <v>0.4257779214047479</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>18.3011900083304</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25.33074293450428</v>
+        <v>25.33074293450427</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.05002977663472782</v>
@@ -749,7 +749,7 @@
         <v>1.174831569030137</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.273598700148493</v>
+        <v>1.273598700148492</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-15.31027240756347</v>
+        <v>-15.18948091786354</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.821056913186943</v>
+        <v>-2.18991561687231</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.007931400777982</v>
+        <v>5.649887057443182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14.2063258737934</v>
+        <v>14.95266338005765</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4719980932998942</v>
+        <v>-0.4762843993184397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.102101219084886</v>
+        <v>-0.07597518651766573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2495984425842632</v>
+        <v>0.2499720143546331</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5106833729277269</v>
+        <v>0.5182375742079638</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.06896131015439</v>
+        <v>11.92022213682596</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>28.29139729747113</v>
+        <v>28.67780218182947</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30.44539164375351</v>
+        <v>31.3553810103943</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35.14906862475049</v>
+        <v>35.34628942849447</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7500375125877176</v>
+        <v>0.7896858668018849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.477294201348178</v>
+        <v>1.383562993405866</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.017516065144103</v>
+        <v>3.176056382602386</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.714118849202747</v>
+        <v>2.791521401993891</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.06476184411045621</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4436256549653962</v>
+        <v>0.4436256549653961</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.859802880402705</v>
+        <v>5.522270030123403</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.35101285188239</v>
+        <v>-9.914401673851158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.60058030321042</v>
+        <v>-15.64097111616856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.721966478081647</v>
+        <v>3.640066263507942</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1891557807215523</v>
+        <v>0.158313180705775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3282232986851406</v>
+        <v>-0.2815278059277541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5146346232427289</v>
+        <v>-0.5498695358317632</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.07746850852611159</v>
+        <v>0.08321587266970405</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>36.59226536729817</v>
+        <v>36.64097719697203</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.68000535143651</v>
+        <v>21.96048859725934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.19906472094559</v>
+        <v>12.17363758037722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28.03618170744711</v>
+        <v>27.47167972497962</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.908477407920112</v>
+        <v>2.91687431597528</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.385707563022902</v>
+        <v>1.252316356116478</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7898029797788366</v>
+        <v>0.7460067055202033</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9273185018834154</v>
+        <v>0.918683389509274</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8752709021738501</v>
+        <v>-1.003552317864234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.43869806819889</v>
+        <v>-3.709212517204219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.042387576788414</v>
+        <v>-5.828533898313123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.058548577407437</v>
+        <v>3.344320307454714</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02497094447006099</v>
+        <v>-0.03876196457584574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0616313018901</v>
+        <v>-0.1058337794925226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1657723449423581</v>
+        <v>-0.1940112693915106</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09955427551269413</v>
+        <v>0.1136172119548319</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>32.42768023564949</v>
+        <v>31.83259395731231</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>31.71531862617856</v>
+        <v>30.45675909614873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22.79217052421418</v>
+        <v>24.82527586607898</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21.30348313809585</v>
+        <v>21.81387290619785</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.812093277861989</v>
+        <v>1.630659515537397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.41053665080396</v>
+        <v>1.254303561061421</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.510076618864383</v>
+        <v>1.565710989239789</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.272770328761203</v>
+        <v>1.435031629601178</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>36.09094187017799</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.123095917257697</v>
+        <v>4.123095917257713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.286239287182909</v>
@@ -1049,7 +1049,7 @@
         <v>3.079561981474957</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1631713243991592</v>
+        <v>0.16317132439916</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.92223719469401</v>
+        <v>-12.78018859620451</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.026301765022917</v>
+        <v>-0.6787439455415972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17.81474656956022</v>
+        <v>18.68057696576092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.262303415296097</v>
+        <v>-8.437728672779489</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3521133858997199</v>
+        <v>-0.3473787784284599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01489202081428698</v>
+        <v>-0.02409944795092783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8556264623618824</v>
+        <v>0.9228010593084476</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2470997669410105</v>
+        <v>-0.2575723758458848</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.4508227463221</v>
+        <v>30.05807795761304</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>42.52252152158771</v>
+        <v>43.17737008134652</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.20997696149757</v>
+        <v>53.15544934527487</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.83140114891904</v>
+        <v>15.52027068407934</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.818290868161939</v>
+        <v>1.670682130180926</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.164967375578866</v>
+        <v>3.246433895525251</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10.67172361493729</v>
+        <v>9.543648477871544</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9639555956445203</v>
+        <v>0.8651633502126198</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>3.880616388630675</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10.87279731822748</v>
+        <v>10.87279731822747</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04429557927991404</v>
@@ -1149,7 +1149,7 @@
         <v>0.1258802916180815</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2720691867975593</v>
+        <v>0.272069186797559</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-15.86192767144052</v>
+        <v>-15.40705249433144</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-21.88103585619158</v>
+        <v>-22.09199622463136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-13.31584425414803</v>
+        <v>-13.25548699946245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.319256048428295</v>
+        <v>-0.8074442181313887</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3499799881357044</v>
+        <v>-0.3413357325007668</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.500960082315493</v>
+        <v>-0.4989586956919216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3514735643560045</v>
+        <v>-0.3596141103993816</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.008577743371282909</v>
+        <v>-0.01876852927344923</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.89442216461959</v>
+        <v>21.74446921722897</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.91225236003128</v>
+        <v>12.36739176002594</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21.60440431458447</v>
+        <v>21.51365554875602</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22.02617785859819</v>
+        <v>21.55459456458809</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7331616562882962</v>
+        <v>0.8248921029576162</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5325826371472836</v>
+        <v>0.514618157034968</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9906415586787858</v>
+        <v>0.9938885447189004</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6692177114398121</v>
+        <v>0.636888768251487</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.7068322479161292</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.126519758298996</v>
+        <v>1.126519758298995</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.292359837307036</v>
+        <v>3.761484450312934</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.122301057854215</v>
+        <v>-4.708437742344242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.155810608930886</v>
+        <v>5.683262145664644</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11.75942148552875</v>
+        <v>11.91160271586708</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1213336501458387</v>
+        <v>0.13280330437982</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1427554409114284</v>
+        <v>-0.1476590639285255</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1695872004029399</v>
+        <v>0.208562026477544</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.4860442220889416</v>
+        <v>0.4502372599327673</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>26.60571801064471</v>
+        <v>25.53648863987551</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.43017610273001</v>
+        <v>19.82978790426711</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28.95752365663331</v>
+        <v>29.63042551561251</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29.56864428548225</v>
+        <v>29.54553985384705</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.070327208648341</v>
+        <v>1.858515218465404</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.002976567976846</v>
+        <v>1.003649228199029</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.57820931170249</v>
+        <v>1.676611148193083</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.211069709331763</v>
+        <v>2.156790200744266</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-12.74765821514358</v>
+        <v>-11.4547469349644</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.760554621807749</v>
+        <v>2.719515838488444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.343755887427752</v>
+        <v>3.71623319931739</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14.62514269182316</v>
+        <v>15.22494094480571</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3253812625905277</v>
+        <v>-0.3066750548319561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05134778621407531</v>
+        <v>0.06230148717989123</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1647618445967271</v>
+        <v>0.1558593648935834</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.8388875131645747</v>
+        <v>0.847067566352899</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.60670183389876</v>
+        <v>11.38717883185336</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>23.58634792776551</v>
+        <v>24.29391140970986</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>24.31163037963164</v>
+        <v>24.54429318744744</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28.75605951900753</v>
+        <v>28.96229320875306</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4670346023355638</v>
+        <v>0.5037328233399297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.02428727516489</v>
+        <v>2.163120461921709</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.709969212444219</v>
+        <v>1.825587781483969</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.732209795925581</v>
+        <v>2.685615794403999</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>14.64440069641564</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16.57242299639235</v>
+        <v>16.57242299639234</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3068880892621381</v>
@@ -1449,7 +1449,7 @@
         <v>0.6964304525054755</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.6708109631574022</v>
+        <v>0.670810963157402</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.170112414865785</v>
+        <v>2.37961733636866</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.581180380218469</v>
+        <v>6.397002512840047</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.483513192069291</v>
+        <v>9.573016331594342</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.6177248624386</v>
+        <v>12.9834569833463</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1113237704341976</v>
+        <v>0.05963922947762816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1743959820674451</v>
+        <v>0.2123008066586715</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3963501536034432</v>
+        <v>0.3970681092165685</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.4732342607613325</v>
+        <v>0.479311403376887</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.30415164703527</v>
+        <v>13.26058694070463</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.92579396760776</v>
+        <v>17.43310980304167</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.65404603637325</v>
+        <v>19.09280780619015</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20.18280087018178</v>
+        <v>20.4595417431754</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5596603399537435</v>
+        <v>0.5485644622402166</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7150969071644313</v>
+        <v>0.7417799111312757</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.04878948760351</v>
+        <v>1.025831856016652</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.8943415871491077</v>
+        <v>0.9069653863122153</v>
       </c>
     </row>
     <row r="31">
